--- a/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_IS.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Dam_Sire_Combinations_IS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">BirthMonth</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
   </si>
 </sst>
 </file>
@@ -548,9 +545,6 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,9 +646,6 @@
       <c r="AG2" t="n">
         <v>6</v>
       </c>
-      <c r="AH2" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -756,9 +747,6 @@
       <c r="AG3" t="n">
         <v>4</v>
       </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,9 +848,6 @@
       <c r="AG4" t="n">
         <v>1</v>
       </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -964,9 +949,6 @@
       <c r="AG5" t="n">
         <v>1</v>
       </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1068,9 +1050,6 @@
       <c r="AG6" t="n">
         <v>4</v>
       </c>
-      <c r="AH6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1171,9 +1150,6 @@
       </c>
       <c r="AG7" t="n">
         <v>21</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1276,9 +1252,6 @@
       <c r="AG8" t="n">
         <v>31</v>
       </c>
-      <c r="AH8" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1380,9 +1353,6 @@
       <c r="AG9" t="n">
         <v>21</v>
       </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1483,9 +1453,6 @@
       </c>
       <c r="AG10" t="n">
         <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1588,9 +1555,6 @@
       <c r="AG11" t="n">
         <v>27</v>
       </c>
-      <c r="AH11" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1692,9 +1656,6 @@
       <c r="AG12" t="n">
         <v>25</v>
       </c>
-      <c r="AH12" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1795,9 +1756,6 @@
       </c>
       <c r="AG13" t="n">
         <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1911,9 +1869,6 @@
       <c r="AF1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2012,9 +1967,6 @@
       <c r="AF2" t="n">
         <v>7</v>
       </c>
-      <c r="AG2" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2113,9 +2065,6 @@
       <c r="AF3" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2214,9 +2163,6 @@
       <c r="AF4" t="n">
         <v>4</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2315,9 +2261,6 @@
       <c r="AF5" t="n">
         <v>1</v>
       </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2416,9 +2359,6 @@
       <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2516,9 +2456,6 @@
       </c>
       <c r="AF7" t="n">
         <v>5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2618,9 +2555,6 @@
       <c r="AF8" t="n">
         <v>4</v>
       </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2719,9 +2653,6 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2818,9 +2749,6 @@
         <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2921,9 +2849,6 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3022,9 +2947,6 @@
       <c r="AF12" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3121,9 +3043,6 @@
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3235,9 +3154,6 @@
       <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3333,9 +3249,6 @@
       <c r="AE2" t="n">
         <v>4</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3431,9 +3344,6 @@
       <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3529,9 +3439,6 @@
       <c r="AE4" t="n">
         <v>1</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3627,9 +3534,6 @@
       <c r="AE5" t="n">
         <v>2</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3725,9 +3629,6 @@
       <c r="AE6" t="n">
         <v>1</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3822,9 +3723,6 @@
       </c>
       <c r="AE7" t="n">
         <v>2</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3921,9 +3819,6 @@
       <c r="AE8" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4019,9 +3914,6 @@
       <c r="AE9" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4116,9 +4008,6 @@
       </c>
       <c r="AE10" t="n">
         <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -4215,9 +4104,6 @@
       <c r="AE11" t="n">
         <v>0</v>
       </c>
-      <c r="AF11" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4313,9 +4199,6 @@
       <c r="AE12" t="n">
         <v>0</v>
       </c>
-      <c r="AF12" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4410,9 +4293,6 @@
       </c>
       <c r="AE13" t="n">
         <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4517,9 +4397,6 @@
       <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4609,9 +4486,6 @@
       <c r="AC2" t="n">
         <v>5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4701,9 +4575,6 @@
       <c r="AC3" t="n">
         <v>4</v>
       </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4793,9 +4664,6 @@
       <c r="AC4" t="n">
         <v>5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4885,9 +4753,6 @@
       <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4977,9 +4842,6 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5067,9 +4929,6 @@
         <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5161,9 +5020,6 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5253,9 +5109,6 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5343,9 +5196,6 @@
         <v>3</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5437,9 +5287,6 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5529,9 +5376,6 @@
       <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5620,9 +5464,6 @@
       </c>
       <c r="AC13" t="n">
         <v>2</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
